--- a/doc/remises/B65-Alex_Bouffard-H15/B65_-_Hiver_2015_-_Outil_d.xlsx
+++ b/doc/remises/B65-Alex_Bouffard-H15/B65_-_Hiver_2015_-_Outil_d.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="0" windowWidth="25160" windowHeight="15280" tabRatio="494"/>
+    <workbookView xWindow="160" yWindow="0" windowWidth="25160" windowHeight="15280" tabRatio="494" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 - Planification" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="103">
   <si>
     <t>No</t>
   </si>
@@ -426,6 +426,42 @@
   </si>
   <si>
     <t>Éditeur d'assembleur</t>
+  </si>
+  <si>
+    <t>Régler le bug des gros fichiers prend tout mon temps</t>
+  </si>
+  <si>
+    <t>Certaines statistiques ne sont pas encore obtenu</t>
+  </si>
+  <si>
+    <t>Priorité mise ailleurs</t>
+  </si>
+  <si>
+    <t>Seulement nécessaire si j'avais des éditeurs</t>
+  </si>
+  <si>
+    <t>Priorité sur l'éditeur hexadécimal</t>
+  </si>
+  <si>
+    <t>J'ai décidé de ne pas faire une classe abstraite en cours de route</t>
+  </si>
+  <si>
+    <t>Méthode complete, mais pas d'éditeur</t>
+  </si>
+  <si>
+    <t>Priorité mise sur l'affichage de visualisation</t>
+  </si>
+  <si>
+    <t>Feature retirée</t>
+  </si>
+  <si>
+    <t>J'ai des bugs lorsque gros fichier</t>
+  </si>
+  <si>
+    <t>Pas de 3d</t>
+  </si>
+  <si>
+    <t>Pas de disassembly</t>
   </si>
 </sst>
 </file>
@@ -2602,6 +2638,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2696,8 +2733,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="2089902232"/>
-        <c:axId val="2089897816"/>
+        <c:axId val="2090953480"/>
+        <c:axId val="2090949512"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2747,13 +2784,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2770,11 +2807,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2089902232"/>
-        <c:axId val="2089897816"/>
+        <c:axId val="2090953480"/>
+        <c:axId val="2090949512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2089902232"/>
+        <c:axId val="2090953480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2817,7 +2854,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2089897816"/>
+        <c:crossAx val="2090949512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2825,7 +2862,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2089897816"/>
+        <c:axId val="2090949512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2876,7 +2913,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2089902232"/>
+        <c:crossAx val="2090953480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2890,6 +2927,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2996,6 +3034,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3136,13 +3175,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>26.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3158,11 +3197,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-15"/>
-        <c:axId val="2091390760"/>
-        <c:axId val="2091398120"/>
+        <c:axId val="2090879736"/>
+        <c:axId val="2090876040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2091390760"/>
+        <c:axId val="2090879736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3205,7 +3244,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2091398120"/>
+        <c:crossAx val="2090876040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3213,7 +3252,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2091398120"/>
+        <c:axId val="2090876040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3264,7 +3303,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2091390760"/>
+        <c:crossAx val="2090879736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3278,6 +3317,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3384,6 +3424,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3662,6 +3703,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3768,6 +3810,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4070,6 +4113,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4578,7 +4622,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4588,7 +4632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AJ90"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -7098,8 +7142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W56"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7156,7 +7200,7 @@
       <c r="F5" s="35"/>
       <c r="G5" s="64" t="str">
         <f>IF(K44=0,CONCATENATE("Ce sprint totalise ", U14, " de travail réalisé. ",U15),CONCATENATE("Attention, il reste ",K45," à remplir!"))</f>
-        <v>Attention, il reste 8 champs à remplir!</v>
+        <v xml:space="preserve">Ce sprint totalise 12 heures de travail réalisé. </v>
       </c>
     </row>
     <row r="6" spans="2:23" ht="7.5" customHeight="1" thickBot="1"/>
@@ -7194,16 +7238,20 @@
         <f>IF(LEN('Sprint 1 - Planification'!H8)&lt;&gt;0,'Sprint 1 - Planification'!H8,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E8" s="109"/>
-      <c r="F8" s="110"/>
+      <c r="E8" s="109">
+        <v>0</v>
+      </c>
+      <c r="F8" s="110">
+        <v>1</v>
+      </c>
       <c r="G8" s="111"/>
       <c r="K8" s="3" t="b">
         <f>AND($D8="Sprint 1",ISBLANK(E8))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="b">
         <f>AND($D8="Sprint 1",ISBLANK(F8))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="b">
         <f>AND($D8="Sprint 1",NOT(ISBLANK($F8)),$F8&lt;100%,ISBLANK($G8))</f>
@@ -7214,15 +7262,15 @@
       </c>
       <c r="Q8" s="61">
         <f t="array" ref="Q8">SUM(($D$8:$D$42=$P8)*$E$8:$E$42)</f>
-        <v>0</v>
+        <v>0.49999999999999972</v>
       </c>
       <c r="R8" s="62">
         <f>Q8*24*60</f>
-        <v>0</v>
+        <v>719.99999999999955</v>
       </c>
       <c r="T8" s="9">
         <f>SUM(E8:E42)</f>
-        <v>0</v>
+        <v>0.49999999999999972</v>
       </c>
     </row>
     <row r="9" spans="2:23">
@@ -7238,16 +7286,20 @@
         <f>IF(LEN('Sprint 1 - Planification'!H9)&lt;&gt;0,'Sprint 1 - Planification'!H9,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113"/>
+      <c r="E9" s="112">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="F9" s="113">
+        <v>1</v>
+      </c>
       <c r="G9" s="114"/>
       <c r="K9" s="3" t="b">
         <f t="shared" ref="K9:K42" si="0">AND($D9="Sprint 1",ISBLANK(E9))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="b">
         <f t="shared" ref="L9:L42" si="1">AND($D9="Sprint 1",ISBLANK(F9))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="b">
         <f t="shared" ref="M9:M42" si="2">AND($D9="Sprint 1",NOT(ISBLANK($F9)),$F9&lt;100%,ISBLANK($G9))</f>
@@ -7266,7 +7318,7 @@
       </c>
       <c r="T9" s="10">
         <f>T8</f>
-        <v>0</v>
+        <v>0.49999999999999972</v>
       </c>
     </row>
     <row r="10" spans="2:23">
@@ -7282,16 +7334,20 @@
         <f>IF(LEN('Sprint 1 - Planification'!H10)&lt;&gt;0,'Sprint 1 - Planification'!H10,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E10" s="115"/>
-      <c r="F10" s="116"/>
+      <c r="E10" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="F10" s="116">
+        <v>1</v>
+      </c>
       <c r="G10" s="117"/>
       <c r="K10" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="b">
         <f t="shared" si="2"/>
@@ -7310,7 +7366,7 @@
       </c>
       <c r="T10" s="63">
         <f>DAY(T8)*24+HOUR(T8)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:23">
@@ -7326,16 +7382,20 @@
         <f>IF(LEN('Sprint 1 - Planification'!H11)&lt;&gt;0,'Sprint 1 - Planification'!H11,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E11" s="112"/>
-      <c r="F11" s="113"/>
+      <c r="E11" s="112">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="F11" s="113">
+        <v>1</v>
+      </c>
       <c r="G11" s="114"/>
       <c r="K11" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="3" t="b">
         <f t="shared" si="2"/>
@@ -7383,11 +7443,11 @@
       </c>
       <c r="T12" s="63">
         <f>T10</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U12" s="4" t="str">
         <f>T12 &amp; " " &amp; S12 &amp; IF(T12 &gt; 1, "s", "")</f>
-        <v>0 heure</v>
+        <v>12 heures</v>
       </c>
     </row>
     <row r="13" spans="2:23">
@@ -7462,11 +7522,11 @@
       <c r="P14" s="8"/>
       <c r="U14" s="4" t="str">
         <f>IF(T12&gt;0,IF(T13&gt;0,U12&amp;" et "&amp;U13,U12),U13)</f>
-        <v>0 minute</v>
+        <v>12 heures</v>
       </c>
       <c r="W14" s="4" t="str">
         <f>T12&amp;"h"&amp;TEXT(T13,"00")</f>
-        <v>0h00</v>
+        <v>12h00</v>
       </c>
     </row>
     <row r="15" spans="2:23">
@@ -7500,11 +7560,11 @@
       <c r="P15" s="8"/>
       <c r="T15" s="4">
         <f t="array" ref="T15">SUM(($D$8:$D$42="Sprint 1")*($F$8:$F$42&lt;1))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U15" s="4" t="str">
         <f>IF(T15=0,"",IF(T15=1,"Une tâche est en retard!",CONCATENATE(T15," tâches sont en retard!")))</f>
-        <v>4 tâches sont en retard!</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="2:23">
@@ -8320,11 +8380,11 @@
     <row r="43" spans="2:16">
       <c r="K43" s="3">
         <f>COUNTIF(K8:K42,TRUE)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <f t="shared" ref="L43:M43" si="4">COUNTIF(L8:L42,TRUE)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <f t="shared" si="4"/>
@@ -8335,14 +8395,14 @@
     <row r="44" spans="2:16">
       <c r="K44" s="3">
         <f>SUM(K43:M43)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P44" s="8"/>
     </row>
     <row r="45" spans="2:16">
       <c r="K45" s="3" t="str">
         <f>IF(K44=0, "aucun champ", IF(K44=1, "1 champ", K44 &amp; " champs"))</f>
-        <v>8 champs</v>
+        <v>aucun champ</v>
       </c>
       <c r="P45" s="8"/>
     </row>
@@ -8510,7 +8570,7 @@
   <dimension ref="B1:Z57"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8575,7 +8635,7 @@
       <c r="H5" s="35"/>
       <c r="I5" s="64" t="str">
         <f>IF(M45=0,CONCATENATE("Ce sprint totalise ", W15, " de travail réalisé. ",W16),CONCATENATE("Attention, il reste ",M46," à remplir!"))</f>
-        <v>Attention, il reste 30 champs à remplir!</v>
+        <v>Ce sprint totalise 26 heures et 45 minutes de travail réalisé. 9 tâches sont en retard!</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="7.5" customHeight="1" thickBot="1"/>
@@ -8632,24 +8692,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H8)&lt;&gt;0,'Sprint 1 - Planification'!H8,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E9" s="72" t="str">
+      <c r="E9" s="72">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E8),"",'Sprint 1 - Bilan'!E8)</f>
-        <v/>
-      </c>
-      <c r="F9" s="71" t="str">
+        <v>0</v>
+      </c>
+      <c r="F9" s="71">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F8),"",'Sprint 1 - Bilan'!F8)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G9" s="109"/>
       <c r="H9" s="110"/>
       <c r="I9" s="111"/>
       <c r="M9" s="3" t="b">
         <f>OR(AND(NOT(P9),LEN($G9)=0),AND(LEN($H9)&gt;0,LEN($G9)=0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="b">
         <f>AND(NOT($P9),LEN($H9)=0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="b">
         <f>AND($D9&lt;&gt;"Sprint 3",NOT(ISBLANK($H9)),$H9&lt;100%,ISBLANK($I9))</f>
@@ -8657,7 +8717,7 @@
       </c>
       <c r="P9" s="3" t="b">
         <f>IF(OR(LEN($D9)=0,$D9="Sprint 3"),TRUE,IF(COUNTA($F9)=0,IF(LEN($H9)=0,FALSE,$H9=100%),IF($F9=100%,TRUE,IF(LEN($H9)=0,FALSE,$H9=100%))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>1</v>
@@ -8672,7 +8732,7 @@
       </c>
       <c r="V9" s="9">
         <f>SUM(G9:G43)</f>
-        <v>0</v>
+        <v>1.1145833333333381</v>
       </c>
     </row>
     <row r="10" spans="2:25">
@@ -8688,24 +8748,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H9)&lt;&gt;0,'Sprint 1 - Planification'!H9,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E10" s="73" t="str">
+      <c r="E10" s="73">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E9),"",'Sprint 1 - Bilan'!E9)</f>
-        <v/>
-      </c>
-      <c r="F10" s="77" t="str">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="F10" s="77">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F9),"",'Sprint 1 - Bilan'!F9)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G10" s="112"/>
       <c r="H10" s="113"/>
       <c r="I10" s="114"/>
       <c r="M10" s="3" t="b">
         <f t="shared" ref="M10:M43" si="0">OR(AND(NOT(P10),LEN($G10)=0),AND(LEN($H10)&gt;0,LEN($G10)=0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="b">
         <f t="shared" ref="N10:N43" si="1">AND(NOT(P10),LEN($H10)=0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="b">
         <f t="shared" ref="O10:O43" si="2">AND($D10&lt;&gt;"Sprint 3",NOT(ISBLANK($H10)),$H10&lt;100%,ISBLANK($I10))</f>
@@ -8713,22 +8773,22 @@
       </c>
       <c r="P10" s="3" t="b">
         <f t="shared" ref="P10:P43" si="3">IF(OR(LEN($D10)=0,$D10="Sprint 3"),TRUE,IF(COUNTA($F10)=0,IF(LEN($H10)=0,FALSE,$H10=100%),IF($F10=100%,TRUE,IF(LEN($H10)=0,FALSE,$H10=100%))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="S10" s="61">
         <f t="array" ref="S10">SUM(($D$9:$D$43=$R10)*$G$9:$G$43)</f>
-        <v>0</v>
+        <v>1.1145833333333381</v>
       </c>
       <c r="T10" s="62">
         <f t="shared" ref="T10:T11" si="4">S10*24*60</f>
-        <v>0</v>
+        <v>1605.0000000000068</v>
       </c>
       <c r="V10" s="10">
         <f>V9</f>
-        <v>0</v>
+        <v>1.1145833333333381</v>
       </c>
     </row>
     <row r="11" spans="2:25">
@@ -8744,24 +8804,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H10)&lt;&gt;0,'Sprint 1 - Planification'!H10,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E11" s="74" t="str">
+      <c r="E11" s="74">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E10),"",'Sprint 1 - Bilan'!E10)</f>
-        <v/>
-      </c>
-      <c r="F11" s="78" t="str">
+        <v>0.25</v>
+      </c>
+      <c r="F11" s="78">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F10),"",'Sprint 1 - Bilan'!F10)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G11" s="115"/>
       <c r="H11" s="116"/>
       <c r="I11" s="117"/>
       <c r="M11" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="3" t="b">
         <f t="shared" si="2"/>
@@ -8769,7 +8829,7 @@
       </c>
       <c r="P11" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>3</v>
@@ -8784,7 +8844,7 @@
       </c>
       <c r="V11" s="63">
         <f>DAY(V9)*24+HOUR(V9)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:25">
@@ -8800,24 +8860,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H11)&lt;&gt;0,'Sprint 1 - Planification'!H11,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E12" s="73" t="str">
+      <c r="E12" s="73">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E11),"",'Sprint 1 - Bilan'!E11)</f>
-        <v/>
-      </c>
-      <c r="F12" s="77" t="str">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="F12" s="77">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F11),"",'Sprint 1 - Bilan'!F11)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G12" s="112"/>
       <c r="H12" s="113"/>
       <c r="I12" s="114"/>
       <c r="M12" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3" t="b">
         <f t="shared" si="2"/>
@@ -8825,13 +8885,13 @@
       </c>
       <c r="P12" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="V12" s="4">
         <f>MINUTE(V9)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:25">
@@ -8855,16 +8915,20 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F12),"",'Sprint 1 - Bilan'!F12)</f>
         <v/>
       </c>
-      <c r="G13" s="118"/>
-      <c r="H13" s="116"/>
+      <c r="G13" s="118">
+        <v>0.52083333333333803</v>
+      </c>
+      <c r="H13" s="116">
+        <v>1</v>
+      </c>
       <c r="I13" s="117"/>
       <c r="M13" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="3" t="b">
         <f t="shared" si="2"/>
@@ -8872,7 +8936,7 @@
       </c>
       <c r="P13" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="8"/>
       <c r="U13" s="4" t="s">
@@ -8880,11 +8944,11 @@
       </c>
       <c r="V13" s="63">
         <f>V11</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="W13" s="4" t="str">
         <f>V13 &amp; " " &amp; U13 &amp; IF(V13 &gt; 1, "s", "")</f>
-        <v>0 heure</v>
+        <v>26 heures</v>
       </c>
     </row>
     <row r="14" spans="2:25">
@@ -8908,16 +8972,20 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F13),"",'Sprint 1 - Bilan'!F13)</f>
         <v/>
       </c>
-      <c r="G14" s="112"/>
-      <c r="H14" s="113"/>
+      <c r="G14" s="112">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="H14" s="113">
+        <v>1</v>
+      </c>
       <c r="I14" s="114"/>
       <c r="M14" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="b">
         <f t="shared" si="2"/>
@@ -8925,7 +8993,7 @@
       </c>
       <c r="P14" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="8"/>
       <c r="U14" s="4" t="s">
@@ -8933,11 +9001,11 @@
       </c>
       <c r="V14" s="4">
         <f>V12</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W14" s="4" t="str">
         <f>V14 &amp; " " &amp; U14 &amp; IF(V14 &gt; 1, "s", "")</f>
-        <v>0 minute</v>
+        <v>45 minutes</v>
       </c>
     </row>
     <row r="15" spans="2:25">
@@ -8961,16 +9029,22 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F14),"",'Sprint 1 - Bilan'!F14)</f>
         <v/>
       </c>
-      <c r="G15" s="118"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="117"/>
+      <c r="G15" s="118">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="H15" s="116">
+        <v>0.7</v>
+      </c>
+      <c r="I15" s="117" t="s">
+        <v>100</v>
+      </c>
       <c r="M15" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="b">
         <f t="shared" si="2"/>
@@ -8983,11 +9057,11 @@
       <c r="R15" s="8"/>
       <c r="W15" s="4" t="str">
         <f>IF(V13&gt;0,IF(V14&gt;0,W13&amp;" et "&amp;W14,W13),W14)</f>
-        <v>0 minute</v>
+        <v>26 heures et 45 minutes</v>
       </c>
       <c r="Y15" s="4" t="str">
         <f>V13&amp;"h"&amp;TEXT(V14,"00")</f>
-        <v>0h00</v>
+        <v>26h45</v>
       </c>
     </row>
     <row r="16" spans="2:25">
@@ -9011,16 +9085,22 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F15),"",'Sprint 1 - Bilan'!F15)</f>
         <v/>
       </c>
-      <c r="G16" s="112"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="114"/>
+      <c r="G16" s="112">
+        <v>0</v>
+      </c>
+      <c r="H16" s="113">
+        <v>0</v>
+      </c>
+      <c r="I16" s="114" t="s">
+        <v>91</v>
+      </c>
       <c r="M16" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="3" t="b">
         <f t="shared" si="2"/>
@@ -9033,11 +9113,11 @@
       <c r="R16" s="8"/>
       <c r="V16" s="4">
         <f>P44</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="W16" s="4" t="str">
         <f>IF(V16=0,"",IF(V16=1,"Une tâche est en retard!",CONCATENATE(V16," tâches sont en retard!")))</f>
-        <v>15 tâches sont en retard!</v>
+        <v>9 tâches sont en retard!</v>
       </c>
     </row>
     <row r="17" spans="2:18">
@@ -9061,16 +9141,22 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F16),"",'Sprint 1 - Bilan'!F16)</f>
         <v/>
       </c>
-      <c r="G17" s="115"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="117"/>
+      <c r="G17" s="115">
+        <v>0</v>
+      </c>
+      <c r="H17" s="116">
+        <v>0</v>
+      </c>
+      <c r="I17" s="117" t="s">
+        <v>91</v>
+      </c>
       <c r="M17" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="b">
         <f t="shared" si="2"/>
@@ -9103,16 +9189,22 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F17),"",'Sprint 1 - Bilan'!F17)</f>
         <v/>
       </c>
-      <c r="G18" s="112"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="114"/>
+      <c r="G18" s="112">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="H18" s="113">
+        <v>0.2</v>
+      </c>
+      <c r="I18" s="114" t="s">
+        <v>91</v>
+      </c>
       <c r="M18" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3" t="b">
         <f t="shared" si="2"/>
@@ -9145,17 +9237,23 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F18),"",'Sprint 1 - Bilan'!F18)</f>
         <v/>
       </c>
-      <c r="G19" s="118"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
+      <c r="G19" s="118">
+        <v>0</v>
+      </c>
+      <c r="H19" s="116">
+        <v>0</v>
+      </c>
+      <c r="I19" s="117" t="s">
+        <v>91</v>
+      </c>
       <c r="K19" s="9"/>
       <c r="M19" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="3" t="b">
         <f t="shared" si="2"/>
@@ -9188,16 +9286,22 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F19),"",'Sprint 1 - Bilan'!F19)</f>
         <v/>
       </c>
-      <c r="G20" s="112"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="114"/>
+      <c r="G20" s="112">
+        <v>0</v>
+      </c>
+      <c r="H20" s="113">
+        <v>0</v>
+      </c>
+      <c r="I20" s="114" t="s">
+        <v>91</v>
+      </c>
       <c r="M20" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="b">
         <f t="shared" si="2"/>
@@ -9230,16 +9334,22 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F20),"",'Sprint 1 - Bilan'!F20)</f>
         <v/>
       </c>
-      <c r="G21" s="118"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="117"/>
+      <c r="G21" s="118">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="H21" s="116">
+        <v>0.4</v>
+      </c>
+      <c r="I21" s="117" t="s">
+        <v>91</v>
+      </c>
       <c r="M21" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3" t="b">
         <f t="shared" si="2"/>
@@ -9272,16 +9382,22 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F21),"",'Sprint 1 - Bilan'!F21)</f>
         <v/>
       </c>
-      <c r="G22" s="112"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="114"/>
+      <c r="G22" s="112">
+        <v>0</v>
+      </c>
+      <c r="H22" s="113">
+        <v>0</v>
+      </c>
+      <c r="I22" s="114" t="s">
+        <v>91</v>
+      </c>
       <c r="M22" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="b">
         <f t="shared" si="2"/>
@@ -9314,16 +9430,22 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F22),"",'Sprint 1 - Bilan'!F22)</f>
         <v/>
       </c>
-      <c r="G23" s="115"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="117"/>
+      <c r="G23" s="115">
+        <v>5.2083333333333301E-2</v>
+      </c>
+      <c r="H23" s="116">
+        <v>0.35</v>
+      </c>
+      <c r="I23" s="117" t="s">
+        <v>92</v>
+      </c>
       <c r="M23" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3" t="b">
         <f t="shared" si="2"/>
@@ -10178,11 +10300,11 @@
     <row r="44" spans="2:18">
       <c r="M44" s="3">
         <f>COUNTIF(M9:M43,TRUE)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" ref="N44:O44" si="5">COUNTIF(N9:N43,TRUE)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
         <f t="shared" si="5"/>
@@ -10190,21 +10312,21 @@
       </c>
       <c r="P44" s="3">
         <f>COUNTIF(P9:P43,FALSE)</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="R44" s="8"/>
     </row>
     <row r="45" spans="2:18">
       <c r="M45" s="3">
         <f>SUM(M44:O44)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R45" s="8"/>
     </row>
     <row r="46" spans="2:18">
       <c r="M46" s="3" t="str">
         <f>IF(M45=0, "aucun champ", IF(M45=1, "1 champ", M45 &amp; " champs"))</f>
-        <v>30 champs</v>
+        <v>aucun champ</v>
       </c>
       <c r="R46" s="8"/>
     </row>
@@ -10388,7 +10510,7 @@
   <dimension ref="B1:Z57"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10453,7 +10575,7 @@
       <c r="H5" s="35"/>
       <c r="I5" s="64" t="str">
         <f>IF(M45=0,CONCATENATE("Ce sprint totalise ", W15, " de travail réalisé. ",W16),CONCATENATE("Attention, il reste ",M46," à remplir!"))</f>
-        <v>Attention, il reste 38 champs à remplir!</v>
+        <v>Ce sprint totalise 20 heures de travail réalisé. 12 tâches n'ont pas été terminé!</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="7.5" customHeight="1" thickBot="1"/>
@@ -10514,20 +10636,20 @@
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E9)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G9)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E9)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G9))</f>
         <v>#NAME?</v>
       </c>
-      <c r="F9" s="71" t="str">
+      <c r="F9" s="71">
         <f>IF(LEN('Sprint 2 - Bilan'!$H9)&lt;&gt;0,'Sprint 2 - Bilan'!$H9,IF(LEN('Sprint 2 - Bilan'!$F9)=0,"",'Sprint 2 - Bilan'!$F9))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G9" s="109"/>
       <c r="H9" s="110"/>
       <c r="I9" s="111"/>
       <c r="M9" s="3" t="b">
         <f>OR(AND(NOT(P9),LEN($G9)=0),AND(LEN($H9)&gt;0,LEN($G9)=0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="b">
         <f>AND(NOT($P9),LEN($H9)=0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="b">
         <f>AND(LEN($H9)&gt;0,$H9&lt;100%,LEN($I9)=0)</f>
@@ -10535,7 +10657,7 @@
       </c>
       <c r="P9" s="3" t="b">
         <f>IF(LEN($C9)=0,TRUE,IF(LEN($F9)=0,IF(LEN($H9)=0,FALSE,$H9=100%),IF($F9=100%,TRUE,IF(LEN($H9)=0,FALSE,$H9=100%))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>1</v>
@@ -10550,7 +10672,7 @@
       </c>
       <c r="V9" s="9">
         <f>SUM(G9:G43)</f>
-        <v>0</v>
+        <v>0.83333333333334125</v>
       </c>
     </row>
     <row r="10" spans="2:25">
@@ -10570,20 +10692,20 @@
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E10)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G10)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E10)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G10))</f>
         <v>#NAME?</v>
       </c>
-      <c r="F10" s="77" t="str">
+      <c r="F10" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H10)&lt;&gt;0,'Sprint 2 - Bilan'!$H10,IF(LEN('Sprint 2 - Bilan'!$F10)=0,"",'Sprint 2 - Bilan'!$F10))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G10" s="112"/>
       <c r="H10" s="113"/>
       <c r="I10" s="114"/>
       <c r="M10" s="3" t="b">
         <f t="shared" ref="M10:M43" si="0">OR(AND(NOT(P10),LEN($G10)=0),AND(LEN($H10)&gt;0,LEN($G10)=0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="b">
         <f t="shared" ref="N10:N43" si="1">AND(NOT($P10),LEN($H10)=0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="b">
         <f t="shared" ref="O10:O43" si="2">AND(LEN($H10)&gt;0,$H10&lt;100%,LEN($I10)=0)</f>
@@ -10591,22 +10713,22 @@
       </c>
       <c r="P10" s="3" t="b">
         <f t="shared" ref="P10:P43" si="3">IF(LEN($C10)=0,TRUE,IF(LEN($F10)=0,IF(LEN($H10)=0,FALSE,$H10=100%),IF($F10=100%,TRUE,IF(LEN($H10)=0,FALSE,$H10=100%))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="S10" s="61">
         <f t="array" ref="S10">SUM(($D$9:$D$43=$R10)*$G$9:$G$43)</f>
-        <v>0</v>
+        <v>0.70833333333334125</v>
       </c>
       <c r="T10" s="62">
         <f t="shared" ref="T10:T11" si="4">S10*24*60</f>
-        <v>0</v>
+        <v>1020.0000000000115</v>
       </c>
       <c r="V10" s="10">
         <f>V9</f>
-        <v>0</v>
+        <v>0.83333333333334125</v>
       </c>
     </row>
     <row r="11" spans="2:25">
@@ -10626,20 +10748,20 @@
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E11)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G11)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E11)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G11))</f>
         <v>#NAME?</v>
       </c>
-      <c r="F11" s="78" t="str">
+      <c r="F11" s="78">
         <f>IF(LEN('Sprint 2 - Bilan'!$H11)&lt;&gt;0,'Sprint 2 - Bilan'!$H11,IF(LEN('Sprint 2 - Bilan'!$F11)=0,"",'Sprint 2 - Bilan'!$F11))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G11" s="115"/>
       <c r="H11" s="116"/>
       <c r="I11" s="117"/>
       <c r="M11" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="3" t="b">
         <f t="shared" si="2"/>
@@ -10647,22 +10769,22 @@
       </c>
       <c r="P11" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="S11" s="61">
         <f t="array" ref="S11">SUM(($D$9:$D$43=$R11)*$G$9:$G$43)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="T11" s="62">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="V11" s="63">
         <f>DAY(V9)*24+HOUR(V9)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:25">
@@ -10682,20 +10804,20 @@
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E12)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G12)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E12)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G12))</f>
         <v>#NAME?</v>
       </c>
-      <c r="F12" s="77" t="str">
+      <c r="F12" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H12)&lt;&gt;0,'Sprint 2 - Bilan'!$H12,IF(LEN('Sprint 2 - Bilan'!$F12)=0,"",'Sprint 2 - Bilan'!$F12))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G12" s="112"/>
       <c r="H12" s="113"/>
       <c r="I12" s="114"/>
       <c r="M12" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3" t="b">
         <f t="shared" si="2"/>
@@ -10703,7 +10825,7 @@
       </c>
       <c r="P12" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
@@ -10729,20 +10851,20 @@
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E13)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G13)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E13)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G13))</f>
         <v>#NAME?</v>
       </c>
-      <c r="F13" s="79" t="str">
+      <c r="F13" s="79">
         <f>IF(LEN('Sprint 2 - Bilan'!$H13)&lt;&gt;0,'Sprint 2 - Bilan'!$H13,IF(LEN('Sprint 2 - Bilan'!$F13)=0,"",'Sprint 2 - Bilan'!$F13))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G13" s="118"/>
       <c r="H13" s="116"/>
       <c r="I13" s="117"/>
       <c r="M13" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="3" t="b">
         <f t="shared" si="2"/>
@@ -10750,7 +10872,7 @@
       </c>
       <c r="P13" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="8"/>
       <c r="U13" s="4" t="s">
@@ -10758,11 +10880,11 @@
       </c>
       <c r="V13" s="63">
         <f>V11</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W13" s="4" t="str">
         <f>V13 &amp; " " &amp; U13 &amp; IF(V13 &gt; 1, "s", "")</f>
-        <v>0 heure</v>
+        <v>20 heures</v>
       </c>
     </row>
     <row r="14" spans="2:25">
@@ -10782,20 +10904,20 @@
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E14)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G14)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E14)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G14))</f>
         <v>#NAME?</v>
       </c>
-      <c r="F14" s="77" t="str">
+      <c r="F14" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H14)&lt;&gt;0,'Sprint 2 - Bilan'!$H14,IF(LEN('Sprint 2 - Bilan'!$F14)=0,"",'Sprint 2 - Bilan'!$F14))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G14" s="112"/>
       <c r="H14" s="113"/>
       <c r="I14" s="114"/>
       <c r="M14" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="b">
         <f t="shared" si="2"/>
@@ -10803,7 +10925,7 @@
       </c>
       <c r="P14" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="8"/>
       <c r="U14" s="4" t="s">
@@ -10835,20 +10957,24 @@
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E15)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G15)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E15)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G15))</f>
         <v>#NAME?</v>
       </c>
-      <c r="F15" s="79" t="str">
+      <c r="F15" s="79">
         <f>IF(LEN('Sprint 2 - Bilan'!$H15)&lt;&gt;0,'Sprint 2 - Bilan'!$H15,IF(LEN('Sprint 2 - Bilan'!$F15)=0,"",'Sprint 2 - Bilan'!$F15))</f>
-        <v/>
-      </c>
-      <c r="G15" s="118"/>
-      <c r="H15" s="116"/>
+        <v>0.7</v>
+      </c>
+      <c r="G15" s="118">
+        <v>0.62500000000000799</v>
+      </c>
+      <c r="H15" s="116">
+        <v>1</v>
+      </c>
       <c r="I15" s="117"/>
       <c r="M15" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="b">
         <f t="shared" si="2"/>
@@ -10856,16 +10982,16 @@
       </c>
       <c r="P15" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="8"/>
       <c r="W15" s="4" t="str">
         <f>IF(V13&gt;0,IF(V14&gt;0,W13&amp;" et "&amp;W14,W13),W14)</f>
-        <v>0 minute</v>
+        <v>20 heures</v>
       </c>
       <c r="Y15" s="4" t="str">
         <f>V13&amp;"h"&amp;TEXT(V14,"00")</f>
-        <v>0h00</v>
+        <v>20h00</v>
       </c>
     </row>
     <row r="16" spans="2:25">
@@ -10885,20 +11011,26 @@
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E16)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G16)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E16)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G16))</f>
         <v>#NAME?</v>
       </c>
-      <c r="F16" s="77" t="str">
+      <c r="F16" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H16)&lt;&gt;0,'Sprint 2 - Bilan'!$H16,IF(LEN('Sprint 2 - Bilan'!$F16)=0,"",'Sprint 2 - Bilan'!$F16))</f>
-        <v/>
-      </c>
-      <c r="G16" s="112"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="114"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="112">
+        <v>0</v>
+      </c>
+      <c r="H16" s="113">
+        <v>0</v>
+      </c>
+      <c r="I16" s="114" t="s">
+        <v>93</v>
+      </c>
       <c r="M16" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="3" t="b">
         <f t="shared" si="2"/>
@@ -10911,11 +11043,11 @@
       <c r="R16" s="8"/>
       <c r="V16" s="4">
         <f>P44</f>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="W16" s="4" t="str">
         <f>IF(V16=0,"",IF(V16=1,"Une tâche n'a pas été terminée!",CONCATENATE(V16," tâches n'ont pas été terminé!")))</f>
-        <v>19 tâches n'ont pas été terminé!</v>
+        <v>12 tâches n'ont pas été terminé!</v>
       </c>
     </row>
     <row r="17" spans="2:18">
@@ -10935,20 +11067,26 @@
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E17)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G17)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E17)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G17))</f>
         <v>#NAME?</v>
       </c>
-      <c r="F17" s="78" t="str">
+      <c r="F17" s="78">
         <f>IF(LEN('Sprint 2 - Bilan'!$H17)&lt;&gt;0,'Sprint 2 - Bilan'!$H17,IF(LEN('Sprint 2 - Bilan'!$F17)=0,"",'Sprint 2 - Bilan'!$F17))</f>
-        <v/>
-      </c>
-      <c r="G17" s="115"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="117"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="115">
+        <v>0</v>
+      </c>
+      <c r="H17" s="116">
+        <v>0</v>
+      </c>
+      <c r="I17" s="117" t="s">
+        <v>94</v>
+      </c>
       <c r="M17" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="b">
         <f t="shared" si="2"/>
@@ -10977,20 +11115,26 @@
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E18)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G18)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E18)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G18))</f>
         <v>#NAME?</v>
       </c>
-      <c r="F18" s="77" t="str">
+      <c r="F18" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H18)&lt;&gt;0,'Sprint 2 - Bilan'!$H18,IF(LEN('Sprint 2 - Bilan'!$F18)=0,"",'Sprint 2 - Bilan'!$F18))</f>
-        <v/>
-      </c>
-      <c r="G18" s="112"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="114"/>
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="112">
+        <v>0</v>
+      </c>
+      <c r="H18" s="113">
+        <v>0.2</v>
+      </c>
+      <c r="I18" s="114" t="s">
+        <v>96</v>
+      </c>
       <c r="M18" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11019,20 +11163,26 @@
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E19)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G19)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E19)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G19))</f>
         <v>#NAME?</v>
       </c>
-      <c r="F19" s="79" t="str">
+      <c r="F19" s="79">
         <f>IF(LEN('Sprint 2 - Bilan'!$H19)&lt;&gt;0,'Sprint 2 - Bilan'!$H19,IF(LEN('Sprint 2 - Bilan'!$F19)=0,"",'Sprint 2 - Bilan'!$F19))</f>
-        <v/>
-      </c>
-      <c r="G19" s="118"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="118">
+        <v>0</v>
+      </c>
+      <c r="H19" s="116">
+        <v>0</v>
+      </c>
+      <c r="I19" s="117" t="s">
+        <v>95</v>
+      </c>
       <c r="M19" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11061,20 +11211,26 @@
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E20)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G20)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E20)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G20))</f>
         <v>#NAME?</v>
       </c>
-      <c r="F20" s="77" t="str">
+      <c r="F20" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H20)&lt;&gt;0,'Sprint 2 - Bilan'!$H20,IF(LEN('Sprint 2 - Bilan'!$F20)=0,"",'Sprint 2 - Bilan'!$F20))</f>
-        <v/>
-      </c>
-      <c r="G20" s="112"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="114"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="112">
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="H20" s="113">
+        <v>0.9</v>
+      </c>
+      <c r="I20" s="114" t="s">
+        <v>97</v>
+      </c>
       <c r="M20" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11103,20 +11259,26 @@
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E21)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G21)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E21)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G21))</f>
         <v>#NAME?</v>
       </c>
-      <c r="F21" s="79" t="str">
+      <c r="F21" s="79">
         <f>IF(LEN('Sprint 2 - Bilan'!$H21)&lt;&gt;0,'Sprint 2 - Bilan'!$H21,IF(LEN('Sprint 2 - Bilan'!$F21)=0,"",'Sprint 2 - Bilan'!$F21))</f>
-        <v/>
-      </c>
-      <c r="G21" s="118"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="117"/>
+        <v>0.4</v>
+      </c>
+      <c r="G21" s="118">
+        <v>0</v>
+      </c>
+      <c r="H21" s="116">
+        <v>0.8</v>
+      </c>
+      <c r="I21" s="117" t="s">
+        <v>98</v>
+      </c>
       <c r="M21" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11145,20 +11307,26 @@
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E22)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G22)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E22)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G22))</f>
         <v>#NAME?</v>
       </c>
-      <c r="F22" s="77" t="str">
+      <c r="F22" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H22)&lt;&gt;0,'Sprint 2 - Bilan'!$H22,IF(LEN('Sprint 2 - Bilan'!$F22)=0,"",'Sprint 2 - Bilan'!$F22))</f>
-        <v/>
-      </c>
-      <c r="G22" s="112"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="114"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="112">
+        <v>0</v>
+      </c>
+      <c r="H22" s="113">
+        <v>0</v>
+      </c>
+      <c r="I22" s="114" t="s">
+        <v>99</v>
+      </c>
       <c r="M22" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11187,20 +11355,26 @@
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E23)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G23)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E23)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G23))</f>
         <v>#NAME?</v>
       </c>
-      <c r="F23" s="78" t="str">
+      <c r="F23" s="78">
         <f>IF(LEN('Sprint 2 - Bilan'!$H23)&lt;&gt;0,'Sprint 2 - Bilan'!$H23,IF(LEN('Sprint 2 - Bilan'!$F23)=0,"",'Sprint 2 - Bilan'!$F23))</f>
-        <v/>
-      </c>
-      <c r="G23" s="115"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="117"/>
+        <v>0.35</v>
+      </c>
+      <c r="G23" s="115">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H23" s="116">
+        <v>0.7</v>
+      </c>
+      <c r="I23" s="117" t="s">
+        <v>98</v>
+      </c>
       <c r="M23" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11233,16 +11407,22 @@
         <f>IF(LEN('Sprint 2 - Bilan'!$H24)&lt;&gt;0,'Sprint 2 - Bilan'!$H24,IF(LEN('Sprint 2 - Bilan'!$F24)=0,"",'Sprint 2 - Bilan'!$F24))</f>
         <v/>
       </c>
-      <c r="G24" s="112"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="114"/>
+      <c r="G24" s="112">
+        <v>0</v>
+      </c>
+      <c r="H24" s="113">
+        <v>0</v>
+      </c>
+      <c r="I24" s="114" t="s">
+        <v>101</v>
+      </c>
       <c r="M24" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11275,16 +11455,22 @@
         <f>IF(LEN('Sprint 2 - Bilan'!$H25)&lt;&gt;0,'Sprint 2 - Bilan'!$H25,IF(LEN('Sprint 2 - Bilan'!$F25)=0,"",'Sprint 2 - Bilan'!$F25))</f>
         <v/>
       </c>
-      <c r="G25" s="118"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="117"/>
+      <c r="G25" s="118">
+        <v>0</v>
+      </c>
+      <c r="H25" s="116">
+        <v>0</v>
+      </c>
+      <c r="I25" s="117" t="s">
+        <v>102</v>
+      </c>
       <c r="M25" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11317,16 +11503,22 @@
         <f>IF(LEN('Sprint 2 - Bilan'!$H26)&lt;&gt;0,'Sprint 2 - Bilan'!$H26,IF(LEN('Sprint 2 - Bilan'!$F26)=0,"",'Sprint 2 - Bilan'!$F26))</f>
         <v/>
       </c>
-      <c r="G26" s="112"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="114"/>
+      <c r="G26" s="112">
+        <v>0</v>
+      </c>
+      <c r="H26" s="113">
+        <v>0</v>
+      </c>
+      <c r="I26" s="114" t="s">
+        <v>102</v>
+      </c>
       <c r="M26" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11359,16 +11551,22 @@
         <f>IF(LEN('Sprint 2 - Bilan'!$H27)&lt;&gt;0,'Sprint 2 - Bilan'!$H27,IF(LEN('Sprint 2 - Bilan'!$F27)=0,"",'Sprint 2 - Bilan'!$F27))</f>
         <v/>
       </c>
-      <c r="G27" s="118"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="117"/>
+      <c r="G27" s="118">
+        <v>0.125</v>
+      </c>
+      <c r="H27" s="116">
+        <v>0.2</v>
+      </c>
+      <c r="I27" s="117" t="s">
+        <v>93</v>
+      </c>
       <c r="M27" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="b">
         <f t="shared" si="2"/>
@@ -12055,11 +12253,11 @@
     <row r="44" spans="2:18">
       <c r="M44" s="3">
         <f>COUNTIF(M9:M43,TRUE)</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" ref="N44:O44" si="5">COUNTIF(N9:N43,TRUE)</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
         <f t="shared" si="5"/>
@@ -12067,21 +12265,21 @@
       </c>
       <c r="P44" s="3">
         <f>COUNTIF(P9:P43,FALSE)</f>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="R44" s="8"/>
     </row>
     <row r="45" spans="2:18">
       <c r="M45" s="3">
         <f>SUM(M44:O44)</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="R45" s="8"/>
     </row>
     <row r="46" spans="2:18">
       <c r="M46" s="3" t="str">
         <f>IF(M45=0, "aucun champ", IF(M45=1, "1 champ", M45 &amp; " champs"))</f>
-        <v>38 champs</v>
+        <v>aucun champ</v>
       </c>
       <c r="R46" s="8"/>
     </row>
@@ -12411,52 +12609,52 @@
       </c>
       <c r="C10" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>0h00</v>
+        <v>12h00</v>
       </c>
       <c r="D10" s="96" t="str">
         <f t="shared" si="0"/>
-        <v>0h00</v>
+        <v>26h45</v>
       </c>
       <c r="E10" s="97" t="str">
         <f t="shared" si="0"/>
-        <v>0h00</v>
+        <v>20h00</v>
       </c>
       <c r="F10" s="101" t="str">
         <f t="shared" si="0"/>
-        <v>0h00</v>
+        <v>58h45</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="L10" s="1">
         <f>'Sprint 1 - Bilan'!T8</f>
-        <v>0</v>
+        <v>0.49999999999999972</v>
       </c>
       <c r="M10" s="1">
         <f>'Sprint 2 - Bilan'!V9</f>
-        <v>0</v>
+        <v>1.1145833333333381</v>
       </c>
       <c r="N10" s="1">
         <f>'Sprint 3 - Bilan'!V9</f>
-        <v>0</v>
+        <v>0.83333333333334125</v>
       </c>
       <c r="O10" s="1">
         <f>SUM(L10:N10)</f>
-        <v>0</v>
+        <v>2.4479166666666794</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>66</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26.75</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U10" s="2" t="s">
         <v>68</v>
@@ -12479,37 +12677,37 @@
       </c>
       <c r="C11" s="104">
         <f>L11</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D11" s="105">
         <f>M11</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E11" s="106">
         <f>N11</f>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F11" s="107">
         <f>O11</f>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="L11" s="1">
         <f>'Sprint 1 - Bilan'!T15</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M11" s="1">
         <f>'Sprint 2 - Bilan'!V16</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N11" s="1">
         <f>'Sprint 3 - Bilan'!V16</f>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="O11" s="1">
         <f>N11</f>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
